--- a/Demo Files/Selections - CORRECT.xlsx
+++ b/Demo Files/Selections - CORRECT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borga/Developer/Projects/ERSMS/Demo Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/friberk/Documents/friBot/yeni/ERSMS/Demo Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D7A58-BF34-FE48-A22F-64C38F5B2F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B16F7D-64A7-F943-B218-08078E275170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -935,10 +935,10 @@
     <t>TUNÇ</t>
   </si>
   <si>
-    <t>TIRE</t>
-  </si>
-  <si>
-    <t>ÖZTIRYAKI</t>
+    <t>TİRE</t>
+  </si>
+  <si>
+    <t>ÖZTİRYAKİ</t>
   </si>
 </sst>
 </file>
@@ -949,7 +949,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,6 +976,13 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1043,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1087,6 +1094,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,9 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1500,9 +1508,9 @@
       <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
